--- a/实验结果/对比结果/消融实验结果.xlsx
+++ b/实验结果/对比结果/消融实验结果.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\系统默认\桌面\毕设\输出结果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\系统默认\桌面\毕设\对比结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997033C8-A752-42A9-B789-A55B66486CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4522E29C-19A0-4576-B022-44A656551097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="最佳适应度" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>地名</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>多样性</t>
-  </si>
-  <si>
-    <t>记忆库</t>
   </si>
   <si>
     <t>动态平衡</t>
@@ -489,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,13 +516,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>172</v>
@@ -540,18 +534,15 @@
         <v>16.8926954146885</v>
       </c>
       <c r="F2">
-        <v>16.797111717095781</v>
+        <v>17.674815797702841</v>
       </c>
       <c r="G2">
-        <v>17.674815797702841</v>
-      </c>
-      <c r="H2">
         <v>15.34445680450807</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>153</v>
@@ -566,18 +557,15 @@
         <v>11.98465726038955</v>
       </c>
       <c r="F3">
-        <v>13.083232234224971</v>
+        <v>14.108425937671081</v>
       </c>
       <c r="G3">
-        <v>14.108425937671081</v>
-      </c>
-      <c r="H3">
         <v>11.939721144035961</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>125</v>
@@ -592,18 +580,15 @@
         <v>9.6336558352613686</v>
       </c>
       <c r="F4">
-        <v>17.12256427485416</v>
+        <v>10.34346623408539</v>
       </c>
       <c r="G4">
-        <v>10.34346623408539</v>
-      </c>
-      <c r="H4">
         <v>9.3878199130658295</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>174</v>
@@ -618,18 +603,15 @@
         <v>17.487275052279681</v>
       </c>
       <c r="F5">
-        <v>26.32672356622539</v>
+        <v>17.11276862106855</v>
       </c>
       <c r="G5">
-        <v>17.11276862106855</v>
-      </c>
-      <c r="H5">
         <v>16.481545813060372</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>113</v>
@@ -644,18 +626,15 @@
         <v>14.261547782295141</v>
       </c>
       <c r="F6">
-        <v>10.08374767676216</v>
+        <v>10.98667111415088</v>
       </c>
       <c r="G6">
-        <v>10.98667111415088</v>
-      </c>
-      <c r="H6">
         <v>9.1457626011519491</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>69</v>
@@ -670,18 +649,15 @@
         <v>16.154742678318499</v>
       </c>
       <c r="F7">
-        <v>4.5600597085100194</v>
+        <v>4.2891072512523447</v>
       </c>
       <c r="G7">
-        <v>4.2891072512523447</v>
-      </c>
-      <c r="H7">
         <v>4.1261135472203438</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>141</v>
@@ -696,18 +672,15 @@
         <v>12.03441092455234</v>
       </c>
       <c r="F8">
-        <v>11.820726778487449</v>
+        <v>11.35592666160646</v>
       </c>
       <c r="G8">
-        <v>11.35592666160646</v>
-      </c>
-      <c r="H8">
         <v>12.865627794267519</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>108</v>
@@ -722,18 +695,15 @@
         <v>6.7076698486231976</v>
       </c>
       <c r="F9">
-        <v>12.438471255234139</v>
+        <v>6.6760241561772053</v>
       </c>
       <c r="G9">
-        <v>6.6760241561772053</v>
-      </c>
-      <c r="H9">
         <v>6.0229783641572876</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -748,18 +718,15 @@
         <v>7.1861935185187367</v>
       </c>
       <c r="F10">
-        <v>8.4862612493588294</v>
+        <v>18.68851621823265</v>
       </c>
       <c r="G10">
-        <v>18.68851621823265</v>
-      </c>
-      <c r="H10">
         <v>8.1554711020344115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>121</v>
@@ -774,18 +741,15 @@
         <v>10.82850574682387</v>
       </c>
       <c r="F11">
-        <v>11.163331471869551</v>
+        <v>12.20669740954785</v>
       </c>
       <c r="G11">
-        <v>12.20669740954785</v>
-      </c>
-      <c r="H11">
         <v>9.0116459682073859</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>94</v>
@@ -800,18 +764,15 @@
         <v>7.6850909579768656</v>
       </c>
       <c r="F12">
-        <v>7.483911036914634</v>
+        <v>8.0056894087552006</v>
       </c>
       <c r="G12">
-        <v>8.0056894087552006</v>
-      </c>
-      <c r="H12">
         <v>7.3241431028398551</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>109</v>
@@ -826,18 +787,15 @@
         <v>8.6788882159621004</v>
       </c>
       <c r="F13">
-        <v>8.3131140492334232</v>
+        <v>9.4681246017199161</v>
       </c>
       <c r="G13">
-        <v>9.4681246017199161</v>
-      </c>
-      <c r="H13">
         <v>7.87296366295599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>116</v>
@@ -852,18 +810,15 @@
         <v>7.9501631714779633</v>
       </c>
       <c r="F14">
-        <v>8.5694467208479672</v>
+        <v>8.7123994793585382</v>
       </c>
       <c r="G14">
-        <v>8.7123994793585382</v>
-      </c>
-      <c r="H14">
         <v>8.1158603207675721</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>136</v>
@@ -878,18 +833,15 @@
         <v>11.52444055257922</v>
       </c>
       <c r="F15">
-        <v>11.47265893491576</v>
+        <v>12.690814655006729</v>
       </c>
       <c r="G15">
-        <v>12.690814655006729</v>
-      </c>
-      <c r="H15">
         <v>11.3218071916487</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>139</v>
@@ -904,18 +856,15 @@
         <v>9.0226575866948249</v>
       </c>
       <c r="F16">
-        <v>10.593214994777529</v>
+        <v>9.018280811268113</v>
       </c>
       <c r="G16">
-        <v>9.018280811268113</v>
-      </c>
-      <c r="H16">
         <v>9.6361776149567593</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>202</v>
@@ -930,18 +879,15 @@
         <v>21.884915786369451</v>
       </c>
       <c r="F17">
-        <v>22.10287345409327</v>
+        <v>23.235369195429769</v>
       </c>
       <c r="G17">
-        <v>23.235369195429769</v>
-      </c>
-      <c r="H17">
         <v>21.15136324802231</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>97</v>
@@ -956,18 +902,15 @@
         <v>9.6400369061527424</v>
       </c>
       <c r="F18">
-        <v>8.7110394446880779</v>
+        <v>8.6879638638748737</v>
       </c>
       <c r="G18">
-        <v>8.6879638638748737</v>
-      </c>
-      <c r="H18">
         <v>9.1813049574820926</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>144</v>
@@ -982,18 +925,15 @@
         <v>16.025147071349028</v>
       </c>
       <c r="F19">
-        <v>16.15982466519225</v>
+        <v>14.898206989907029</v>
       </c>
       <c r="G19">
-        <v>14.898206989907029</v>
-      </c>
-      <c r="H19">
         <v>14.594789376341399</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>117</v>
@@ -1008,18 +948,15 @@
         <v>10.39757687403319</v>
       </c>
       <c r="F20">
-        <v>11.151907068009439</v>
+        <v>11.548402262097721</v>
       </c>
       <c r="G20">
-        <v>11.548402262097721</v>
-      </c>
-      <c r="H20">
         <v>9.6702929258139747</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -1034,18 +971,15 @@
         <v>7.8825013719489769</v>
       </c>
       <c r="F21">
-        <v>8.767702954080157</v>
+        <v>8.4360987011203772</v>
       </c>
       <c r="G21">
-        <v>8.4360987011203772</v>
-      </c>
-      <c r="H21">
         <v>8.236350010004017</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -1060,18 +994,15 @@
         <v>7.4371293232935312</v>
       </c>
       <c r="F22">
-        <v>7.0927934501118166</v>
+        <v>6.1007770522910656</v>
       </c>
       <c r="G22">
-        <v>6.1007770522910656</v>
-      </c>
-      <c r="H22">
         <v>5.3739775120627424</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>114</v>
@@ -1086,18 +1017,15 @@
         <v>8.509154808182501</v>
       </c>
       <c r="F23">
-        <v>9.0524245175604268</v>
+        <v>8.6419204715779099</v>
       </c>
       <c r="G23">
-        <v>8.6419204715779099</v>
-      </c>
-      <c r="H23">
         <v>8.058944187681881</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>122</v>
@@ -1112,18 +1040,15 @@
         <v>11.38290514389014</v>
       </c>
       <c r="F24">
-        <v>10.57130679483587</v>
+        <v>11.506111348302269</v>
       </c>
       <c r="G24">
-        <v>11.506111348302269</v>
-      </c>
-      <c r="H24">
         <v>11.211677925282039</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>73</v>
@@ -1138,18 +1063,15 @@
         <v>5.9212883306829696</v>
       </c>
       <c r="F25">
-        <v>9.3228203593854762</v>
+        <v>6.3116051249670111</v>
       </c>
       <c r="G25">
-        <v>6.3116051249670111</v>
-      </c>
-      <c r="H25">
         <v>5.7066066136284768</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>113</v>
@@ -1164,18 +1086,15 @@
         <v>12.46422431618705</v>
       </c>
       <c r="F26">
-        <v>11.22826868203431</v>
+        <v>21.347654074766702</v>
       </c>
       <c r="G26">
-        <v>21.347654074766702</v>
-      </c>
-      <c r="H26">
         <v>12.01718600798389</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>